--- a/src/assets/DB/DB_table.xlsx
+++ b/src/assets/DB/DB_table.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12260" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer-contact" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer-questions" sheetId="3" r:id="rId2"/>
-    <sheet name="Inventory" sheetId="2" r:id="rId3"/>
-    <sheet name="Employee" sheetId="4" r:id="rId4"/>
+    <sheet name="customer" sheetId="8" r:id="rId1"/>
+    <sheet name="cust_quiz" sheetId="3" r:id="rId2"/>
+    <sheet name="inventory" sheetId="2" r:id="rId3"/>
+    <sheet name="items" sheetId="6" r:id="rId4"/>
+    <sheet name="category" sheetId="5" r:id="rId5"/>
+    <sheet name="supplier" sheetId="7" r:id="rId6"/>
+    <sheet name="teams" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -38,62 +38,209 @@
     <t>email</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>lineID</t>
-  </si>
-  <si>
-    <t>questions</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>supplier</t>
-  </si>
-  <si>
     <t>lot order</t>
   </si>
   <si>
     <t>defect</t>
   </si>
   <si>
-    <t>in stock</t>
-  </si>
-  <si>
-    <t>capital (total)</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>created on</t>
-  </si>
-  <si>
-    <t>created by</t>
-  </si>
-  <si>
-    <t>last edited on</t>
-  </si>
-  <si>
-    <t>last edited by</t>
-  </si>
-  <si>
     <t>employee_id</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>cust_id</t>
+  </si>
+  <si>
+    <t>cate_id</t>
+  </si>
+  <si>
+    <t>quiz_id</t>
+  </si>
+  <si>
+    <t>quiz</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>lineid</t>
+  </si>
+  <si>
+    <t>list_id</t>
+  </si>
+  <si>
+    <t>items_id</t>
+  </si>
+  <si>
+    <t>sup_id</t>
+  </si>
+  <si>
+    <t>instock</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>sale1pc</t>
+  </si>
+  <si>
+    <t>createdat</t>
+  </si>
+  <si>
+    <t>createdby</t>
+  </si>
+  <si>
+    <t>updateat</t>
+  </si>
+  <si>
+    <t>updateby</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>Macy</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Junior Corp.</t>
+  </si>
+  <si>
+    <t>Panida</t>
+  </si>
+  <si>
+    <t>Kodak</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>Suppachai</t>
+  </si>
+  <si>
+    <t>Snap photo</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Kodak color plus</t>
+  </si>
+  <si>
+    <t>Maecenas eget varius velit. Suspendisse potenti. Praesent in risus ullamcorper, congue purus in, scelerisque nisi. Cras nec eros non erat consectetur porta. Maecenas fringilla elit et lacus pellentesque venenatis. Nullam tincidunt enim vel fringilla cursus. Nullam et elementum tellus.</t>
+  </si>
+  <si>
+    <t>Kodak gold</t>
+  </si>
+  <si>
+    <t>Fuji C200</t>
+  </si>
+  <si>
+    <t>Portra 800</t>
+  </si>
+  <si>
+    <t>Extra 100</t>
+  </si>
+  <si>
+    <t>4x6 -120 photos</t>
+  </si>
+  <si>
+    <t>8x10 -120 photos</t>
+  </si>
+  <si>
+    <t>4x6 -300 photos</t>
+  </si>
+  <si>
+    <t>8x10 -300 photos</t>
+  </si>
+  <si>
+    <t>10x12 -120 photos</t>
+  </si>
+  <si>
+    <t>5x7 -Oak</t>
+  </si>
+  <si>
+    <t>8x10 -Gold</t>
+  </si>
+  <si>
+    <t>10x12 -Colorful</t>
+  </si>
+  <si>
+    <t>11x14 -Gold</t>
+  </si>
+  <si>
+    <t>12x18 -Gold</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Palm</t>
+  </si>
+  <si>
+    <t>amy@gmail.com</t>
+  </si>
+  <si>
+    <t>winter@gmail.com</t>
+  </si>
+  <si>
+    <t>palm@gmail.com</t>
+  </si>
+  <si>
+    <t>12-888-8888</t>
+  </si>
+  <si>
+    <t>12-777-7777</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>Sed tincidunt velit vitae velit fermentum sagittis. Aliquam ut vulputate est. Proin sit amet vehicula ligula, quis auctor velit. Etiam eget odio pulvinar, pulvinar velit at, volutpat velit. Fusce convallis volutpat metus, a vehicula est euismod nec. Quisque sit amet augue condimentum, aliquam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliquam in elit enim. Donec ultricies leo nunc. In tempus, purus quis tristique faucibus, nisl justo maximus nisi, sit amet congue nisi dui at lorem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integer nulla sapien, aliquet quis augue in, aliquet dapibus risus. Morbi ut enim ut metus dapibus pulvinar sed at sem. Quisque condimentum sem lorem. </t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>12-999-9999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -105,6 +252,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,16 +297,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,72 +588,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.35546875" customWidth="1"/>
+    <col min="3" max="3" width="17.78515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -504,10 +754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -515,56 +765,647 @@
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.92578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.35546875" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="9.640625" customWidth="1"/>
-    <col min="8" max="8" width="13.78515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.2109375" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.92578125" customWidth="1"/>
+    <col min="4" max="4" width="11.35546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="9.640625" customWidth="1"/>
+    <col min="7" max="7" width="13.78515625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.2109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2-E2</f>
+        <v>100</v>
+      </c>
+      <c r="G2" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>320</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F18" si="0">D3-E3</f>
+        <v>200</v>
+      </c>
+      <c r="G3" s="3">
+        <v>620000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>330</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>320000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>340</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>320</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>320</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>320</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>320</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>220</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>220</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>220</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>220</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>220</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>220</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>220</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>220</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>220</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>220</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -574,30 +1415,431 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.92578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="18.0703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>789012</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3">
+        <v>789012</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/DB/DB_table.xlsx
+++ b/src/assets/DB/DB_table.xlsx
@@ -757,7 +757,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -834,7 +834,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="3">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="H2" s="3">
         <v>320</v>
@@ -869,7 +869,7 @@
         <v>200</v>
       </c>
       <c r="G3" s="3">
-        <v>620000</v>
+        <v>62000</v>
       </c>
       <c r="H3" s="3">
         <v>330</v>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="3">
-        <v>320000</v>
+        <v>32000</v>
       </c>
       <c r="H4" s="3">
         <v>340</v>
@@ -939,7 +939,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="3">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="H5" s="3">
         <v>320</v>
@@ -974,7 +974,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="3">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="H6" s="3">
         <v>320</v>
@@ -1009,7 +1009,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="3">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="H7" s="3">
         <v>320</v>
@@ -1044,7 +1044,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="H8" s="3">
         <v>320</v>
@@ -1079,7 +1079,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H9" s="3">
         <v>220</v>
@@ -1114,7 +1114,7 @@
         <v>97</v>
       </c>
       <c r="G10" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H10" s="3">
         <v>220</v>
@@ -1149,7 +1149,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H11" s="3">
         <v>220</v>
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H12" s="3">
         <v>220</v>
@@ -1219,7 +1219,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H13" s="3">
         <v>220</v>
@@ -1254,7 +1254,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H14" s="3">
         <v>220</v>
@@ -1289,7 +1289,7 @@
         <v>95</v>
       </c>
       <c r="G15" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H15" s="3">
         <v>220</v>
@@ -1324,7 +1324,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H16" s="3">
         <v>220</v>
@@ -1359,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H17" s="3">
         <v>220</v>
@@ -1394,7 +1394,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H18" s="3">
         <v>220</v>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>

--- a/src/assets/DB/DB_table.xlsx
+++ b/src/assets/DB/DB_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12260" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -591,7 +591,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -1676,23 +1676,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1718,6 +1721,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1726,7 +1730,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -1800,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -1828,18 +1832,18 @@
         <v>25</v>
       </c>
       <c r="C2" s="3">
-        <v>123456</v>
+        <v>123457</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
-        <v>789012</v>
+        <v>123457</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="3">
-        <v>789012</v>
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
